--- a/data/pca/factorExposure/factorExposure_2012-05-30.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-05-30.xlsx
@@ -14,12 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +701,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01722538375696968</v>
+        <v>-0.02124867693374952</v>
       </c>
       <c r="C2">
-        <v>-0.03324626816844259</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0.0261725312669057</v>
+      </c>
+      <c r="D2">
+        <v>-0.004621803473821834</v>
+      </c>
+      <c r="E2">
+        <v>0.0298644107788998</v>
+      </c>
+      <c r="F2">
+        <v>0.008660258303866287</v>
+      </c>
+      <c r="G2">
+        <v>-0.009275627154394105</v>
+      </c>
+      <c r="H2">
+        <v>-0.05748041786817206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +766,51 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.06906051899747391</v>
+        <v>-0.07875180583617815</v>
       </c>
       <c r="C4">
-        <v>-0.06134364412129481</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0.04138060815573966</v>
+      </c>
+      <c r="D4">
+        <v>0.06869485199192496</v>
+      </c>
+      <c r="E4">
+        <v>0.001110536690538011</v>
+      </c>
+      <c r="F4">
+        <v>0.03294659540989457</v>
+      </c>
+      <c r="G4">
+        <v>0.005249310836300559</v>
+      </c>
+      <c r="H4">
+        <v>0.02161088836230864</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +818,311 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.09891757355356257</v>
+        <v>-0.1154355909703933</v>
       </c>
       <c r="C6">
-        <v>-0.0663350859262562</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.04198352059831602</v>
+      </c>
+      <c r="D6">
+        <v>0.01294764972073167</v>
+      </c>
+      <c r="E6">
+        <v>-0.007025190007642171</v>
+      </c>
+      <c r="F6">
+        <v>0.04951374747379592</v>
+      </c>
+      <c r="G6">
+        <v>-0.01099438535012108</v>
+      </c>
+      <c r="H6">
+        <v>-0.06493578251117349</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.04774254519060563</v>
+        <v>-0.05896647491205904</v>
       </c>
       <c r="C7">
-        <v>-0.03426632095703619</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.02402164576687886</v>
+      </c>
+      <c r="D7">
+        <v>0.041653822562477</v>
+      </c>
+      <c r="E7">
+        <v>0.0200532023548348</v>
+      </c>
+      <c r="F7">
+        <v>0.03695418900438104</v>
+      </c>
+      <c r="G7">
+        <v>0.04553008000140226</v>
+      </c>
+      <c r="H7">
+        <v>0.02957238459186488</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.03559794417294387</v>
+        <v>-0.03807815951889828</v>
       </c>
       <c r="C8">
-        <v>-0.02604337889733638</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0.01457689737907609</v>
+      </c>
+      <c r="D8">
+        <v>0.03753616827736245</v>
+      </c>
+      <c r="E8">
+        <v>0.002833847952926999</v>
+      </c>
+      <c r="F8">
+        <v>0.04844117551082125</v>
+      </c>
+      <c r="G8">
+        <v>-0.02374289131376332</v>
+      </c>
+      <c r="H8">
+        <v>-0.02578482966885353</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.06348853142209181</v>
+        <v>-0.07326302185500626</v>
       </c>
       <c r="C9">
-        <v>-0.04872947815133757</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0.03037948741300736</v>
+      </c>
+      <c r="D9">
+        <v>0.06791339673481388</v>
+      </c>
+      <c r="E9">
+        <v>0.01856296909772455</v>
+      </c>
+      <c r="F9">
+        <v>0.04077403979731307</v>
+      </c>
+      <c r="G9">
+        <v>0.006101760771164417</v>
+      </c>
+      <c r="H9">
+        <v>0.05050315493391234</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.03268425836039734</v>
+        <v>-0.04351439417336848</v>
       </c>
       <c r="C10">
-        <v>-0.03460609254555398</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.03453877740672616</v>
+      </c>
+      <c r="D10">
+        <v>-0.1774076493941305</v>
+      </c>
+      <c r="E10">
+        <v>0.04498037851654062</v>
+      </c>
+      <c r="F10">
+        <v>0.03778626214217829</v>
+      </c>
+      <c r="G10">
+        <v>0.03808205917136585</v>
+      </c>
+      <c r="H10">
+        <v>-0.02608414810898067</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.06623550855975291</v>
+        <v>-0.07498978733436115</v>
       </c>
       <c r="C11">
-        <v>-0.05004608539593945</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>0.0300171084918295</v>
+      </c>
+      <c r="D11">
+        <v>0.06603992084354213</v>
+      </c>
+      <c r="E11">
+        <v>-0.01166470892966564</v>
+      </c>
+      <c r="F11">
+        <v>0.03308081123202382</v>
+      </c>
+      <c r="G11">
+        <v>0.02088858283723198</v>
+      </c>
+      <c r="H11">
+        <v>0.08340518722774103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.05167803687638226</v>
+        <v>-0.06399453832917509</v>
       </c>
       <c r="C12">
-        <v>-0.05072811567684851</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0.0360601375770892</v>
+      </c>
+      <c r="D12">
+        <v>0.05106284240269034</v>
+      </c>
+      <c r="E12">
+        <v>0.007979894861906405</v>
+      </c>
+      <c r="F12">
+        <v>0.030582140241645</v>
+      </c>
+      <c r="G12">
+        <v>0.01537127435592992</v>
+      </c>
+      <c r="H12">
+        <v>0.04198964054599703</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.05689264893136037</v>
+        <v>-0.06402696025418222</v>
       </c>
       <c r="C13">
-        <v>-0.04961953391567972</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0.03060574293671993</v>
+      </c>
+      <c r="D13">
+        <v>0.0409661284911313</v>
+      </c>
+      <c r="E13">
+        <v>-0.002535615239173246</v>
+      </c>
+      <c r="F13">
+        <v>0.005243448291134199</v>
+      </c>
+      <c r="G13">
+        <v>0.001811921654256304</v>
+      </c>
+      <c r="H13">
+        <v>0.05877881999012322</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.03027834813603295</v>
+        <v>-0.0397726533334545</v>
       </c>
       <c r="C14">
-        <v>-0.03023881046757219</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0.0240408644207275</v>
+      </c>
+      <c r="D14">
+        <v>0.005807699122801727</v>
+      </c>
+      <c r="E14">
+        <v>0.01766976711210166</v>
+      </c>
+      <c r="F14">
+        <v>0.02069959364279515</v>
+      </c>
+      <c r="G14">
+        <v>-0.003715167040023698</v>
+      </c>
+      <c r="H14">
+        <v>0.05287597314736125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.03934015850315838</v>
+        <v>-0.04098478158681716</v>
       </c>
       <c r="C15">
-        <v>-0.01298501786030297</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0.002926080034586983</v>
+      </c>
+      <c r="D15">
+        <v>0.01164770319589568</v>
+      </c>
+      <c r="E15">
+        <v>0.03914981929754401</v>
+      </c>
+      <c r="F15">
+        <v>0.003958414105868322</v>
+      </c>
+      <c r="G15">
+        <v>-0.01970640194342004</v>
+      </c>
+      <c r="H15">
+        <v>0.06046696632834316</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.05583559316680833</v>
+        <v>-0.06387076894939647</v>
       </c>
       <c r="C16">
-        <v>-0.04366859914781888</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.02774746669293328</v>
+      </c>
+      <c r="D16">
+        <v>0.06090978914149781</v>
+      </c>
+      <c r="E16">
+        <v>-0.001681777620044342</v>
+      </c>
+      <c r="F16">
+        <v>0.02994118787522177</v>
+      </c>
+      <c r="G16">
+        <v>0.009356047789845707</v>
+      </c>
+      <c r="H16">
+        <v>0.04829205653042507</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +1130,25 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +1156,25 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1182,207 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.06153671595395554</v>
+        <v>-0.06228971292801129</v>
       </c>
       <c r="C20">
-        <v>-0.03677402366763628</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0.01665294470000795</v>
+      </c>
+      <c r="D20">
+        <v>0.0518254000624029</v>
+      </c>
+      <c r="E20">
+        <v>0.01701997729885111</v>
+      </c>
+      <c r="F20">
+        <v>0.02935818926100433</v>
+      </c>
+      <c r="G20">
+        <v>0.009478168248193647</v>
+      </c>
+      <c r="H20">
+        <v>0.04067098828145331</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.02382699401239025</v>
+        <v>-0.02345858104496313</v>
       </c>
       <c r="C21">
-        <v>0.002807408953124738</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>-0.009944876634386483</v>
+      </c>
+      <c r="D21">
+        <v>0.03464547869004991</v>
+      </c>
+      <c r="E21">
+        <v>0.08004277697932816</v>
+      </c>
+      <c r="F21">
+        <v>-4.83727677354332e-05</v>
+      </c>
+      <c r="G21">
+        <v>-0.006265236705548438</v>
+      </c>
+      <c r="H21">
+        <v>-0.0122801405302342</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.06777666038641485</v>
+        <v>-0.06338468380213576</v>
       </c>
       <c r="C22">
-        <v>-0.06972446268858806</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>0.04105111025715442</v>
+      </c>
+      <c r="D22">
+        <v>0.09922177451223663</v>
+      </c>
+      <c r="E22">
+        <v>0.617474487463078</v>
+      </c>
+      <c r="F22">
+        <v>-0.1120392822741403</v>
+      </c>
+      <c r="G22">
+        <v>0.02150607495092914</v>
+      </c>
+      <c r="H22">
+        <v>-0.1031522241286128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.06897162625028842</v>
+        <v>-0.06384470600394582</v>
       </c>
       <c r="C23">
-        <v>-0.06912418666055896</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>0.039951086194143</v>
+      </c>
+      <c r="D23">
+        <v>0.1000088039237172</v>
+      </c>
+      <c r="E23">
+        <v>0.6165137438899138</v>
+      </c>
+      <c r="F23">
+        <v>-0.1112622954862851</v>
+      </c>
+      <c r="G23">
+        <v>0.02022665643933921</v>
+      </c>
+      <c r="H23">
+        <v>-0.09818484835929385</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.06422855068508572</v>
+        <v>-0.07534221634564039</v>
       </c>
       <c r="C24">
-        <v>-0.05254630286293817</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>0.03377856788030244</v>
+      </c>
+      <c r="D24">
+        <v>0.06367656689795444</v>
+      </c>
+      <c r="E24">
+        <v>0.006724653743973415</v>
+      </c>
+      <c r="F24">
+        <v>0.04259251012483022</v>
+      </c>
+      <c r="G24">
+        <v>0.006869627271565284</v>
+      </c>
+      <c r="H24">
+        <v>0.05440298860281249</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.06429171486983662</v>
+        <v>-0.07314564662402592</v>
       </c>
       <c r="C25">
-        <v>-0.05851562226578955</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>0.03840846096951903</v>
+      </c>
+      <c r="D25">
+        <v>0.06118878024969131</v>
+      </c>
+      <c r="E25">
+        <v>0.009613334170447647</v>
+      </c>
+      <c r="F25">
+        <v>0.03837730180641819</v>
+      </c>
+      <c r="G25">
+        <v>-0.003572189182552957</v>
+      </c>
+      <c r="H25">
+        <v>0.05839449207006585</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.03905828097837718</v>
+        <v>-0.04221176973715592</v>
       </c>
       <c r="C26">
-        <v>-0.0147113620974688</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>0.005321287503776349</v>
+      </c>
+      <c r="D26">
+        <v>0.0252476832832863</v>
+      </c>
+      <c r="E26">
+        <v>0.03673961562379367</v>
+      </c>
+      <c r="F26">
+        <v>0.02649303893917084</v>
+      </c>
+      <c r="G26">
+        <v>0.01114824523132203</v>
+      </c>
+      <c r="H26">
+        <v>0.06167069639434575</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1390,259 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.05964018355135624</v>
+        <v>-0.07862029474965783</v>
       </c>
       <c r="C28">
-        <v>-0.07156009548230323</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.06777315249959508</v>
+      </c>
+      <c r="D28">
+        <v>-0.320687183144521</v>
+      </c>
+      <c r="E28">
+        <v>0.0361456241966884</v>
+      </c>
+      <c r="F28">
+        <v>0.05290659939283277</v>
+      </c>
+      <c r="G28">
+        <v>-0.02470817944435997</v>
+      </c>
+      <c r="H28">
+        <v>0.009948711645534675</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.0368318363260594</v>
+        <v>-0.04466971948986796</v>
       </c>
       <c r="C29">
-        <v>-0.02910185361156846</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>0.02195385878512066</v>
+      </c>
+      <c r="D29">
+        <v>0.01164412814955172</v>
+      </c>
+      <c r="E29">
+        <v>0.03866985670627673</v>
+      </c>
+      <c r="F29">
+        <v>0.01593561222294978</v>
+      </c>
+      <c r="G29">
+        <v>0.01506409962119378</v>
+      </c>
+      <c r="H29">
+        <v>0.09048100851652516</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.1138153243241184</v>
+        <v>-0.1309968719597752</v>
       </c>
       <c r="C30">
-        <v>-0.09968831093143965</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>0.06508832520915492</v>
+      </c>
+      <c r="D30">
+        <v>0.09199996168522698</v>
+      </c>
+      <c r="E30">
+        <v>0.04482437367594732</v>
+      </c>
+      <c r="F30">
+        <v>0.02018811864949524</v>
+      </c>
+      <c r="G30">
+        <v>-0.02669681631905318</v>
+      </c>
+      <c r="H30">
+        <v>-0.04898101445070623</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.03761982022388672</v>
+        <v>-0.04393962505585084</v>
       </c>
       <c r="C31">
-        <v>-0.02356009703937907</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>0.0140511589503936</v>
+      </c>
+      <c r="D31">
+        <v>0.02845634874943693</v>
+      </c>
+      <c r="E31">
+        <v>0.02139911868233261</v>
+      </c>
+      <c r="F31">
+        <v>0.01426966984948223</v>
+      </c>
+      <c r="G31">
+        <v>0.02421097075412192</v>
+      </c>
+      <c r="H31">
+        <v>0.06491416174740355</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.03406376739364143</v>
+        <v>-0.03338645376876884</v>
       </c>
       <c r="C32">
-        <v>-0.02296864610683412</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>0.01249739549406589</v>
+      </c>
+      <c r="D32">
+        <v>0.01387205290521764</v>
+      </c>
+      <c r="E32">
+        <v>0.06801843740588842</v>
+      </c>
+      <c r="F32">
+        <v>0.001600575541243845</v>
+      </c>
+      <c r="G32">
+        <v>-0.03002761386442783</v>
+      </c>
+      <c r="H32">
+        <v>0.02727769172705324</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.07414211651439377</v>
+        <v>-0.08808806025739009</v>
       </c>
       <c r="C33">
-        <v>-0.05156703671766012</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>0.03216938838573457</v>
+      </c>
+      <c r="D33">
+        <v>0.06056408277879038</v>
+      </c>
+      <c r="E33">
+        <v>0.01337367016303613</v>
+      </c>
+      <c r="F33">
+        <v>0.01009995379986423</v>
+      </c>
+      <c r="G33">
+        <v>0.01806635800603771</v>
+      </c>
+      <c r="H33">
+        <v>0.05419972769450033</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.05163792972366841</v>
+        <v>-0.05814203042583854</v>
       </c>
       <c r="C34">
-        <v>-0.03302388612370733</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>0.01743195234213916</v>
+      </c>
+      <c r="D34">
+        <v>0.06066678872587784</v>
+      </c>
+      <c r="E34">
+        <v>0.001335701031831695</v>
+      </c>
+      <c r="F34">
+        <v>0.02531483751015008</v>
+      </c>
+      <c r="G34">
+        <v>0.004268230430491972</v>
+      </c>
+      <c r="H34">
+        <v>0.04060453972516128</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>-0.03538709948897287</v>
+        <v>-0.03995237925134287</v>
       </c>
       <c r="C35">
-        <v>-0.01196759187278411</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>0.004445795007102072</v>
+      </c>
+      <c r="D35">
+        <v>0.01499958413215449</v>
+      </c>
+      <c r="E35">
+        <v>0.02101350467489296</v>
+      </c>
+      <c r="F35">
+        <v>0.001385075675411527</v>
+      </c>
+      <c r="G35">
+        <v>0.01350893134530557</v>
+      </c>
+      <c r="H35">
+        <v>0.03676063103246147</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01744722455367596</v>
+        <v>-0.02488924805602901</v>
       </c>
       <c r="C36">
-        <v>-0.01669920815826692</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>0.013075208159128</v>
+      </c>
+      <c r="D36">
+        <v>0.01929134593671817</v>
+      </c>
+      <c r="E36">
+        <v>0.03691337741985977</v>
+      </c>
+      <c r="F36">
+        <v>0.0214751159603234</v>
+      </c>
+      <c r="G36">
+        <v>0.01661974357518352</v>
+      </c>
+      <c r="H36">
+        <v>0.05075825916194903</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1650,129 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.03888686390297798</v>
+        <v>-0.04150624269562152</v>
       </c>
       <c r="C38">
-        <v>-0.01007711279921261</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>0.001942261015639042</v>
+      </c>
+      <c r="D38">
+        <v>0.01833870257017221</v>
+      </c>
+      <c r="E38">
+        <v>0.06243823829067466</v>
+      </c>
+      <c r="F38">
+        <v>-0.01439360317300742</v>
+      </c>
+      <c r="G38">
+        <v>-0.01705431888920558</v>
+      </c>
+      <c r="H38">
+        <v>0.04090460772370233</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.08512819034247855</v>
+        <v>-0.09998856755210576</v>
       </c>
       <c r="C39">
-        <v>-0.08197621288294858</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>0.05548086787048977</v>
+      </c>
+      <c r="D39">
+        <v>0.07814892893275374</v>
+      </c>
+      <c r="E39">
+        <v>-0.01408120072323978</v>
+      </c>
+      <c r="F39">
+        <v>0.01907772268061221</v>
+      </c>
+      <c r="G39">
+        <v>-0.01895230929707521</v>
+      </c>
+      <c r="H39">
+        <v>0.03904295451742138</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.06711347094229039</v>
+        <v>-0.06975844670304912</v>
       </c>
       <c r="C40">
-        <v>-0.05668038198796209</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>0.03318686924061521</v>
+      </c>
+      <c r="D40">
+        <v>0.009478280969819593</v>
+      </c>
+      <c r="E40">
+        <v>0.02658183976567549</v>
+      </c>
+      <c r="F40">
+        <v>-0.05293020679271906</v>
+      </c>
+      <c r="G40">
+        <v>-0.07559786767389227</v>
+      </c>
+      <c r="H40">
+        <v>-0.1093888305498237</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.038338234088008</v>
+        <v>-0.04237112574714071</v>
       </c>
       <c r="C41">
-        <v>-0.01404712572734447</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>0.005366374610075578</v>
+      </c>
+      <c r="D41">
+        <v>0.04110328355442221</v>
+      </c>
+      <c r="E41">
+        <v>0.007177352261423452</v>
+      </c>
+      <c r="F41">
+        <v>-0.005677258524811843</v>
+      </c>
+      <c r="G41">
+        <v>-0.00909592074197278</v>
+      </c>
+      <c r="H41">
+        <v>0.0427919717887383</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1780,77 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.04281810639068745</v>
+        <v>-0.05195989881315362</v>
       </c>
       <c r="C43">
-        <v>-0.03270904296737349</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>0.02071223985622331</v>
+      </c>
+      <c r="D43">
+        <v>0.02850492598531618</v>
+      </c>
+      <c r="E43">
+        <v>0.0164437281085604</v>
+      </c>
+      <c r="F43">
+        <v>0.0153870935447501</v>
+      </c>
+      <c r="G43">
+        <v>0.009244707499097298</v>
+      </c>
+      <c r="H43">
+        <v>0.05018873011545016</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.09049458246626854</v>
+        <v>-0.09120721503861558</v>
       </c>
       <c r="C44">
-        <v>-0.09591039686547752</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>0.06177672362883203</v>
+      </c>
+      <c r="D44">
+        <v>0.05942250070187206</v>
+      </c>
+      <c r="E44">
+        <v>0.09735664437009514</v>
+      </c>
+      <c r="F44">
+        <v>0.06167753492822888</v>
+      </c>
+      <c r="G44">
+        <v>-0.02145649003499208</v>
+      </c>
+      <c r="H44">
+        <v>-0.07566571075654197</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1858,181 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02666071664109701</v>
+        <v>-0.02832488729079868</v>
       </c>
       <c r="C46">
-        <v>-0.018775204610731</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>0.01022766967843096</v>
+      </c>
+      <c r="D46">
+        <v>0.03412696571595858</v>
+      </c>
+      <c r="E46">
+        <v>0.01679127255084838</v>
+      </c>
+      <c r="F46">
+        <v>0.01924110955033295</v>
+      </c>
+      <c r="G46">
+        <v>-0.0008048473074055248</v>
+      </c>
+      <c r="H46">
+        <v>0.04625890779419795</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.02602133397617253</v>
+        <v>-0.02848830960554856</v>
       </c>
       <c r="C47">
-        <v>-0.02141002174264556</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>0.01355973363731867</v>
+      </c>
+      <c r="D47">
+        <v>0.01206366067732291</v>
+      </c>
+      <c r="E47">
+        <v>0.04739694618820127</v>
+      </c>
+      <c r="F47">
+        <v>0.01513059670753642</v>
+      </c>
+      <c r="G47">
+        <v>0.03519099718422376</v>
+      </c>
+      <c r="H47">
+        <v>0.03379496050020659</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.02785801362291281</v>
+        <v>-0.03255192316016232</v>
       </c>
       <c r="C48">
-        <v>-0.02008746773515427</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>0.01228168293371935</v>
+      </c>
+      <c r="D48">
+        <v>0.03226743808527263</v>
+      </c>
+      <c r="E48">
+        <v>0.04091169224263538</v>
+      </c>
+      <c r="F48">
+        <v>0.01555047860825667</v>
+      </c>
+      <c r="G48">
+        <v>-0.002512376056650409</v>
+      </c>
+      <c r="H48">
+        <v>0.0531449328222336</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>-0.1501211087171735</v>
+        <v>-0.1791334792132009</v>
       </c>
       <c r="C49">
-        <v>-0.08983771942608547</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>0.05331566651747813</v>
+      </c>
+      <c r="D49">
+        <v>0.02282110916107023</v>
+      </c>
+      <c r="E49">
+        <v>-0.129069152645551</v>
+      </c>
+      <c r="F49">
+        <v>0.0237620488364929</v>
+      </c>
+      <c r="G49">
+        <v>0.04249685046344669</v>
+      </c>
+      <c r="H49">
+        <v>-0.2736264493725991</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.03311875532225207</v>
+        <v>-0.04241475020999559</v>
       </c>
       <c r="C50">
-        <v>-0.0279933921259077</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>0.0218687329454976</v>
+      </c>
+      <c r="D50">
+        <v>0.03442524622583556</v>
+      </c>
+      <c r="E50">
+        <v>0.0457090388157121</v>
+      </c>
+      <c r="F50">
+        <v>0.02765236952104954</v>
+      </c>
+      <c r="G50">
+        <v>0.02238645117780329</v>
+      </c>
+      <c r="H50">
+        <v>0.06992463877397392</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.02428671244440916</v>
+        <v>-0.02675288701349108</v>
       </c>
       <c r="C51">
-        <v>-0.01532512518987886</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>0.009600602247542877</v>
+      </c>
+      <c r="D51">
+        <v>0.02294826058771738</v>
+      </c>
+      <c r="E51">
+        <v>0.01470379917630417</v>
+      </c>
+      <c r="F51">
+        <v>0.01169049506317705</v>
+      </c>
+      <c r="G51">
+        <v>-0.004076768431854278</v>
+      </c>
+      <c r="H51">
+        <v>0.01502062658788979</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +2040,129 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1386373193823939</v>
+        <v>-0.1585232921964598</v>
       </c>
       <c r="C53">
-        <v>-0.09551462655256301</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>0.06366151464206279</v>
+      </c>
+      <c r="D53">
+        <v>0.02303466903421446</v>
+      </c>
+      <c r="E53">
+        <v>-0.04103027010285675</v>
+      </c>
+      <c r="F53">
+        <v>0.01511354557750901</v>
+      </c>
+      <c r="G53">
+        <v>0.002880575523150093</v>
+      </c>
+      <c r="H53">
+        <v>0.1509191552181987</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.05114718332426837</v>
+        <v>-0.05547782023098369</v>
       </c>
       <c r="C54">
-        <v>-0.02896791971537076</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>0.01408876328744226</v>
+      </c>
+      <c r="D54">
+        <v>0.03284136599464797</v>
+      </c>
+      <c r="E54">
+        <v>0.04723021480564537</v>
+      </c>
+      <c r="F54">
+        <v>0.02047113110018554</v>
+      </c>
+      <c r="G54">
+        <v>-0.0009318688441686659</v>
+      </c>
+      <c r="H54">
+        <v>0.06004191643739198</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.09141273788118449</v>
+        <v>-0.09903021148836558</v>
       </c>
       <c r="C55">
-        <v>-0.06092581082480782</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>0.03869446462081797</v>
+      </c>
+      <c r="D55">
+        <v>0.03020596436672361</v>
+      </c>
+      <c r="E55">
+        <v>0.006487317340089852</v>
+      </c>
+      <c r="F55">
+        <v>0.02195966662187223</v>
+      </c>
+      <c r="G55">
+        <v>0.003138519149293995</v>
+      </c>
+      <c r="H55">
+        <v>0.1345574681388519</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1386910441609515</v>
+        <v>-0.1580273685371825</v>
       </c>
       <c r="C56">
-        <v>-0.1080542070413195</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>0.07316940204297924</v>
+      </c>
+      <c r="D56">
+        <v>0.01767848553641336</v>
+      </c>
+      <c r="E56">
+        <v>-0.04132252155119887</v>
+      </c>
+      <c r="F56">
+        <v>0.04557868340173334</v>
+      </c>
+      <c r="G56">
+        <v>0.01522828171847989</v>
+      </c>
+      <c r="H56">
+        <v>0.1522322383651137</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +2170,1013 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1146219928856046</v>
+        <v>-0.09900231048999995</v>
       </c>
       <c r="C58">
-        <v>-0.02664057507272979</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>-0.01435935575984755</v>
+      </c>
+      <c r="D58">
+        <v>0.06006006360206128</v>
+      </c>
+      <c r="E58">
+        <v>0.1834288391399403</v>
+      </c>
+      <c r="F58">
+        <v>0.02175191897262176</v>
+      </c>
+      <c r="G58">
+        <v>0.05299456243956336</v>
+      </c>
+      <c r="H58">
+        <v>-0.2058930277585519</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1141442661706527</v>
+        <v>-0.150407008706386</v>
       </c>
       <c r="C59">
-        <v>-0.08327318452560496</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>0.07679243192210844</v>
+      </c>
+      <c r="D59">
+        <v>-0.3589566962685001</v>
+      </c>
+      <c r="E59">
+        <v>0.045417280420836</v>
+      </c>
+      <c r="F59">
+        <v>-0.0168890776399719</v>
+      </c>
+      <c r="G59">
+        <v>0.03901739477299408</v>
+      </c>
+      <c r="H59">
+        <v>0.00235719403032884</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1883845812742074</v>
+        <v>-0.220307124514724</v>
       </c>
       <c r="C60">
-        <v>-0.1163523122818877</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>0.07396148943869606</v>
+      </c>
+      <c r="D60">
+        <v>0.02552307702571054</v>
+      </c>
+      <c r="E60">
+        <v>-0.0720706379923283</v>
+      </c>
+      <c r="F60">
+        <v>0.04072224399932026</v>
+      </c>
+      <c r="G60">
+        <v>-0.02151762737311243</v>
+      </c>
+      <c r="H60">
+        <v>-0.167519889541457</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.07408646934519103</v>
+        <v>-0.08491815128578892</v>
       </c>
       <c r="C61">
-        <v>-0.0621048064755048</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>0.04099442314644605</v>
+      </c>
+      <c r="D61">
+        <v>0.05900607893762398</v>
+      </c>
+      <c r="E61">
+        <v>-0.01672697376189435</v>
+      </c>
+      <c r="F61">
+        <v>0.01049642344169402</v>
+      </c>
+      <c r="G61">
+        <v>0.0148397922033587</v>
+      </c>
+      <c r="H61">
+        <v>0.06828081600628001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>-0.1187852338447373</v>
+        <v>-0.1387269285634712</v>
       </c>
       <c r="C62">
-        <v>-0.08099513883936676</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>0.05350631902882615</v>
+      </c>
+      <c r="D62">
+        <v>0.02573298324357766</v>
+      </c>
+      <c r="E62">
+        <v>-0.05563132826348834</v>
+      </c>
+      <c r="F62">
+        <v>0.01844001148104698</v>
+      </c>
+      <c r="G62">
+        <v>-0.0282177410996178</v>
+      </c>
+      <c r="H62">
+        <v>0.1516781359468514</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.04940726633271981</v>
+        <v>-0.05057292298320774</v>
       </c>
       <c r="C63">
-        <v>-0.03220362666278849</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>0.01766728472628936</v>
+      </c>
+      <c r="D63">
+        <v>0.02831031642795468</v>
+      </c>
+      <c r="E63">
+        <v>0.04658267199685048</v>
+      </c>
+      <c r="F63">
+        <v>0.01318082050458305</v>
+      </c>
+      <c r="G63">
+        <v>-0.02948223242949303</v>
+      </c>
+      <c r="H63">
+        <v>0.08307749431235725</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.1067265501768937</v>
+        <v>-0.1123142150279602</v>
       </c>
       <c r="C64">
-        <v>-0.04207952010879881</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>0.01315418725604555</v>
+      </c>
+      <c r="D64">
+        <v>0.04840101500429676</v>
+      </c>
+      <c r="E64">
+        <v>0.02471482846383981</v>
+      </c>
+      <c r="F64">
+        <v>0.05894289803864086</v>
+      </c>
+      <c r="G64">
+        <v>-0.02203159829073671</v>
+      </c>
+      <c r="H64">
+        <v>0.07985210802724563</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.1107067539083829</v>
+        <v>-0.1237741901187336</v>
       </c>
       <c r="C65">
-        <v>-0.06560927184566469</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>0.03968809926997104</v>
+      </c>
+      <c r="D65">
+        <v>0.006735189370109875</v>
+      </c>
+      <c r="E65">
+        <v>-0.002332446818646874</v>
+      </c>
+      <c r="F65">
+        <v>0.06316741467646345</v>
+      </c>
+      <c r="G65">
+        <v>-0.03142175512290524</v>
+      </c>
+      <c r="H65">
+        <v>-0.09179942642969345</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.1326678775487915</v>
+        <v>-0.1515674473536598</v>
       </c>
       <c r="C66">
-        <v>-0.09246416670431118</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>0.05596837300666425</v>
+      </c>
+      <c r="D66">
+        <v>0.1176385658223255</v>
+      </c>
+      <c r="E66">
+        <v>-0.05612398822206877</v>
+      </c>
+      <c r="F66">
+        <v>0.03800185327829358</v>
+      </c>
+      <c r="G66">
+        <v>-0.02174092309728566</v>
+      </c>
+      <c r="H66">
+        <v>0.1135487484860897</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.07065684913202251</v>
+        <v>-0.07632961766106038</v>
       </c>
       <c r="C67">
-        <v>-0.02225384155364878</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>0.007010233442937967</v>
+      </c>
+      <c r="D67">
+        <v>0.02921476829415741</v>
+      </c>
+      <c r="E67">
+        <v>0.02807152567800661</v>
+      </c>
+      <c r="F67">
+        <v>0.004901123305304326</v>
+      </c>
+      <c r="G67">
+        <v>0.004191920541612247</v>
+      </c>
+      <c r="H67">
+        <v>0.03553137038123765</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.05988561156477691</v>
+        <v>-0.07215643851447315</v>
       </c>
       <c r="C68">
-        <v>-0.04802844326653107</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>0.04438281329779552</v>
+      </c>
+      <c r="D68">
+        <v>-0.2655146708003382</v>
+      </c>
+      <c r="E68">
+        <v>0.04864179698268804</v>
+      </c>
+      <c r="F68">
+        <v>0.008876068154577893</v>
+      </c>
+      <c r="G68">
+        <v>0.008143939912914766</v>
+      </c>
+      <c r="H68">
+        <v>0.02171447972271216</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.04796614006697978</v>
+        <v>-0.0479708665199829</v>
       </c>
       <c r="C69">
-        <v>-0.02601184852718345</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>0.01000333792515685</v>
+      </c>
+      <c r="D69">
+        <v>0.02696981177202532</v>
+      </c>
+      <c r="E69">
+        <v>0.02225636849740555</v>
+      </c>
+      <c r="F69">
+        <v>0.0004330070384624004</v>
+      </c>
+      <c r="G69">
+        <v>0.007081638728350746</v>
+      </c>
+      <c r="H69">
+        <v>0.06272181966066365</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>-0.004466876340958498</v>
+        <v>-0.01650113231062359</v>
       </c>
       <c r="C70">
-        <v>0.003433850208277221</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-0.000881129429994122</v>
+      </c>
+      <c r="D70">
+        <v>-0.006984287321503345</v>
+      </c>
+      <c r="E70">
+        <v>-0.02058258323525411</v>
+      </c>
+      <c r="F70">
+        <v>0.01287335509872266</v>
+      </c>
+      <c r="G70">
+        <v>0.0179156980479899</v>
+      </c>
+      <c r="H70">
+        <v>-0.04392113239209824</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.06307056875466535</v>
+        <v>-0.07626300492314937</v>
       </c>
       <c r="C71">
-        <v>-0.04499261599708409</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>0.04188591569806716</v>
+      </c>
+      <c r="D71">
+        <v>-0.2972393086748543</v>
+      </c>
+      <c r="E71">
+        <v>0.04416837153819557</v>
+      </c>
+      <c r="F71">
+        <v>0.03595663423766378</v>
+      </c>
+      <c r="G71">
+        <v>0.00772148138736699</v>
+      </c>
+      <c r="H71">
+        <v>0.006464601394897526</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1331995344545236</v>
+        <v>-0.1544385726980517</v>
       </c>
       <c r="C72">
-        <v>-0.07351790077650097</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>0.04232796666477767</v>
+      </c>
+      <c r="D72">
+        <v>0.00742623154111271</v>
+      </c>
+      <c r="E72">
+        <v>-0.08770304644892231</v>
+      </c>
+      <c r="F72">
+        <v>-0.1616667414699436</v>
+      </c>
+      <c r="G72">
+        <v>-0.1208670763645111</v>
+      </c>
+      <c r="H72">
+        <v>0.01787236427037416</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2495237009330045</v>
+        <v>-0.2790789239375893</v>
       </c>
       <c r="C73">
-        <v>-0.1416110081824381</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>0.0757155104671715</v>
+      </c>
+      <c r="D73">
+        <v>0.08167911692476405</v>
+      </c>
+      <c r="E73">
+        <v>-0.184452253320449</v>
+      </c>
+      <c r="F73">
+        <v>0.06489097116863328</v>
+      </c>
+      <c r="G73">
+        <v>0.1776428046374946</v>
+      </c>
+      <c r="H73">
+        <v>-0.6027772845961238</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.0728844847000254</v>
+        <v>-0.08845455947759792</v>
       </c>
       <c r="C74">
-        <v>-0.08316627217464909</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>0.06256933946331728</v>
+      </c>
+      <c r="D74">
+        <v>0.03051477429164694</v>
+      </c>
+      <c r="E74">
+        <v>-0.007687291569358922</v>
+      </c>
+      <c r="F74">
+        <v>-0.0115624183942415</v>
+      </c>
+      <c r="G74">
+        <v>0.03545709139815428</v>
+      </c>
+      <c r="H74">
+        <v>0.1295986568534039</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.09327237644061462</v>
+        <v>-0.1022272002804223</v>
       </c>
       <c r="C75">
-        <v>-0.06195307646997541</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>0.03281993310179387</v>
+      </c>
+      <c r="D75">
+        <v>0.01175915344638134</v>
+      </c>
+      <c r="E75">
+        <v>-0.005855335813221134</v>
+      </c>
+      <c r="F75">
+        <v>0.04931760701965994</v>
+      </c>
+      <c r="G75">
+        <v>0.01975115358479337</v>
+      </c>
+      <c r="H75">
+        <v>0.117529553936387</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1157224102876842</v>
+        <v>-0.1318115875245346</v>
       </c>
       <c r="C76">
-        <v>-0.09622622447025839</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>0.06591625460556774</v>
+      </c>
+      <c r="D76">
+        <v>0.04905613201340435</v>
+      </c>
+      <c r="E76">
+        <v>0.007256065560534159</v>
+      </c>
+      <c r="F76">
+        <v>0.06097519315281667</v>
+      </c>
+      <c r="G76">
+        <v>0.0105777571669951</v>
+      </c>
+      <c r="H76">
+        <v>0.157097497046045</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1172904029678579</v>
+        <v>-0.1149928160459871</v>
       </c>
       <c r="C77">
-        <v>-0.05547075126157212</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>0.01917367248441976</v>
+      </c>
+      <c r="D77">
+        <v>0.01906157096825947</v>
+      </c>
+      <c r="E77">
+        <v>-0.006599687126750197</v>
+      </c>
+      <c r="F77">
+        <v>0.2587815368194212</v>
+      </c>
+      <c r="G77">
+        <v>-0.879523399200814</v>
+      </c>
+      <c r="H77">
+        <v>-0.1134525121902025</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.08735941186445859</v>
+        <v>-0.110956022943317</v>
       </c>
       <c r="C78">
-        <v>-0.04694125558624732</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>0.03001349260634908</v>
+      </c>
+      <c r="D78">
+        <v>0.08339363146938487</v>
+      </c>
+      <c r="E78">
+        <v>0.06428966339333046</v>
+      </c>
+      <c r="F78">
+        <v>0.0150710035475863</v>
+      </c>
+      <c r="G78">
+        <v>-0.03081283295476689</v>
+      </c>
+      <c r="H78">
+        <v>-0.115811580124837</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.1358288785073413</v>
+        <v>-0.1511610182526414</v>
       </c>
       <c r="C79">
-        <v>-0.1011590519824962</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>0.06169562482200473</v>
+      </c>
+      <c r="D79">
+        <v>0.03111516638819118</v>
+      </c>
+      <c r="E79">
+        <v>-0.02860206742932167</v>
+      </c>
+      <c r="F79">
+        <v>0.02529914750323657</v>
+      </c>
+      <c r="G79">
+        <v>0.02053601031435285</v>
+      </c>
+      <c r="H79">
+        <v>0.148234921039621</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.03940512331941954</v>
+        <v>-0.03822565212667203</v>
       </c>
       <c r="C80">
-        <v>-0.01898296786774847</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>0.007118573539086952</v>
+      </c>
+      <c r="D80">
+        <v>0.02823747642211108</v>
+      </c>
+      <c r="E80">
+        <v>-0.00450702652871421</v>
+      </c>
+      <c r="F80">
+        <v>-0.02587092295454609</v>
+      </c>
+      <c r="G80">
+        <v>0.03395400135982164</v>
+      </c>
+      <c r="H80">
+        <v>0.04334401895420759</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1100039731471601</v>
+        <v>-0.1197895353826162</v>
       </c>
       <c r="C81">
-        <v>-0.07661099403741063</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>0.04478846366981467</v>
+      </c>
+      <c r="D81">
+        <v>0.03072775792739975</v>
+      </c>
+      <c r="E81">
+        <v>-0.009951960694388272</v>
+      </c>
+      <c r="F81">
+        <v>0.02853897148395019</v>
+      </c>
+      <c r="G81">
+        <v>0.05781776838071247</v>
+      </c>
+      <c r="H81">
+        <v>0.172485482749206</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.117099052500866</v>
+        <v>-0.1274404567288952</v>
       </c>
       <c r="C82">
-        <v>-0.08808489839147871</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>0.05569114404529667</v>
+      </c>
+      <c r="D82">
+        <v>0.03145536826104318</v>
+      </c>
+      <c r="E82">
+        <v>-0.02589581755694079</v>
+      </c>
+      <c r="F82">
+        <v>0.05070131434749459</v>
+      </c>
+      <c r="G82">
+        <v>0.05160021027854048</v>
+      </c>
+      <c r="H82">
+        <v>0.1753775864097565</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.07291876049106952</v>
+        <v>-0.07485567032200423</v>
       </c>
       <c r="C83">
-        <v>-0.02160086059504549</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>-0.002097901079609713</v>
+      </c>
+      <c r="D83">
+        <v>0.04383777124780592</v>
+      </c>
+      <c r="E83">
+        <v>0.01726560948975626</v>
+      </c>
+      <c r="F83">
+        <v>0.01055779281033742</v>
+      </c>
+      <c r="G83">
+        <v>0.08587213282074209</v>
+      </c>
+      <c r="H83">
+        <v>0.0007392407179740922</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.02571451371569101</v>
+        <v>-0.03629453633401097</v>
       </c>
       <c r="C84">
-        <v>-0.0278703995464996</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>0.02299699183088992</v>
+      </c>
+      <c r="D84">
+        <v>0.0358056367567955</v>
+      </c>
+      <c r="E84">
+        <v>0.02098258290363869</v>
+      </c>
+      <c r="F84">
+        <v>-0.05236021068555252</v>
+      </c>
+      <c r="G84">
+        <v>0.05441890057706551</v>
+      </c>
+      <c r="H84">
+        <v>0.01522013612104264</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1135846475034832</v>
+        <v>-0.1174043327575003</v>
       </c>
       <c r="C85">
-        <v>-0.07264277173359712</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>0.03768912050199932</v>
+      </c>
+      <c r="D85">
+        <v>0.03021293949641442</v>
+      </c>
+      <c r="E85">
+        <v>0.001206400786675426</v>
+      </c>
+      <c r="F85">
+        <v>0.07457379619692471</v>
+      </c>
+      <c r="G85">
+        <v>0.0289349019352597</v>
+      </c>
+      <c r="H85">
+        <v>0.125785664417093</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.04688158136358615</v>
+        <v>-0.04982003253875608</v>
       </c>
       <c r="C86">
-        <v>-0.02560330409830566</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>0.01237046680804887</v>
+      </c>
+      <c r="D86">
+        <v>0.01955010055720689</v>
+      </c>
+      <c r="E86">
+        <v>0.05796813871182618</v>
+      </c>
+      <c r="F86">
+        <v>0.02825296894021677</v>
+      </c>
+      <c r="G86">
+        <v>0.009763686255305666</v>
+      </c>
+      <c r="H86">
+        <v>0.006986137785056188</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.118895220008122</v>
+        <v>-0.1225655480816763</v>
       </c>
       <c r="C87">
-        <v>-0.082579204819618</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>0.04216427948601954</v>
+      </c>
+      <c r="D87">
+        <v>0.07209031730995026</v>
+      </c>
+      <c r="E87">
+        <v>0.01384053760182047</v>
+      </c>
+      <c r="F87">
+        <v>0.02437841979062737</v>
+      </c>
+      <c r="G87">
+        <v>-0.1091975862811931</v>
+      </c>
+      <c r="H87">
+        <v>0.005979569327634677</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.05225813138669184</v>
+        <v>-0.05834224837395837</v>
       </c>
       <c r="C88">
-        <v>-0.03744709875663369</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>0.02312171531982023</v>
+      </c>
+      <c r="D88">
+        <v>0.02448292400138179</v>
+      </c>
+      <c r="E88">
+        <v>0.01876348784675443</v>
+      </c>
+      <c r="F88">
+        <v>0.01194429719455908</v>
+      </c>
+      <c r="G88">
+        <v>-0.0111283606247266</v>
+      </c>
+      <c r="H88">
+        <v>0.06932602603263674</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.08359769987039015</v>
+        <v>-0.1094941419922588</v>
       </c>
       <c r="C89">
-        <v>-0.06900620356324204</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>0.06611735172758938</v>
+      </c>
+      <c r="D89">
+        <v>-0.3287675792664369</v>
+      </c>
+      <c r="E89">
+        <v>0.07446693996350311</v>
+      </c>
+      <c r="F89">
+        <v>0.06538516831136039</v>
+      </c>
+      <c r="G89">
+        <v>0.03293976517078945</v>
+      </c>
+      <c r="H89">
+        <v>-0.007066306741965728</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.07407265016490906</v>
+        <v>-0.09213843597901546</v>
       </c>
       <c r="C90">
-        <v>-0.05930874821990441</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>0.05467939921427081</v>
+      </c>
+      <c r="D90">
+        <v>-0.3066558963471186</v>
+      </c>
+      <c r="E90">
+        <v>0.06287195534938218</v>
+      </c>
+      <c r="F90">
+        <v>-0.01376647586647535</v>
+      </c>
+      <c r="G90">
+        <v>0.005774375184863191</v>
+      </c>
+      <c r="H90">
+        <v>0.02051738768890346</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.07764061484227266</v>
+        <v>-0.08672295490574179</v>
       </c>
       <c r="C91">
-        <v>-0.06529111261241408</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>0.04211936473376808</v>
+      </c>
+      <c r="D91">
+        <v>0.02383298205611198</v>
+      </c>
+      <c r="E91">
+        <v>0.01224517401735629</v>
+      </c>
+      <c r="F91">
+        <v>0.009604687386465161</v>
+      </c>
+      <c r="G91">
+        <v>0.04288932083233024</v>
+      </c>
+      <c r="H91">
+        <v>0.08796838451622252</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.08540539513107262</v>
+        <v>-0.1043427731865585</v>
       </c>
       <c r="C92">
-        <v>-0.07169543467234969</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>0.06346227730775425</v>
+      </c>
+      <c r="D92">
+        <v>-0.3397216426090673</v>
+      </c>
+      <c r="E92">
+        <v>0.0481895077876834</v>
+      </c>
+      <c r="F92">
+        <v>0.03095733755024303</v>
+      </c>
+      <c r="G92">
+        <v>0.003358963809013821</v>
+      </c>
+      <c r="H92">
+        <v>0.02552130899264515</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.06690006998468752</v>
+        <v>-0.08874458109889174</v>
       </c>
       <c r="C93">
-        <v>-0.05987682718792346</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>0.05921255854062035</v>
+      </c>
+      <c r="D93">
+        <v>-0.3025449347459281</v>
+      </c>
+      <c r="E93">
+        <v>0.03332848756314278</v>
+      </c>
+      <c r="F93">
+        <v>0.04105578128793462</v>
+      </c>
+      <c r="G93">
+        <v>-0.0005518194114302942</v>
+      </c>
+      <c r="H93">
+        <v>-0.01153175560032029</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.1228750302634376</v>
+        <v>-0.1267581451548827</v>
       </c>
       <c r="C94">
-        <v>-0.07576944934508285</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>0.03556156179373671</v>
+      </c>
+      <c r="D94">
+        <v>0.05244701119036963</v>
+      </c>
+      <c r="E94">
+        <v>-0.02409597116147671</v>
+      </c>
+      <c r="F94">
+        <v>0.02995995884966281</v>
+      </c>
+      <c r="G94">
+        <v>0.04477490213612538</v>
+      </c>
+      <c r="H94">
+        <v>0.08302181677116348</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.1128582760247803</v>
+        <v>-0.1192707887105982</v>
       </c>
       <c r="C95">
-        <v>-0.05769261045699055</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>0.02241667825529721</v>
+      </c>
+      <c r="D95">
+        <v>0.05884007786868827</v>
+      </c>
+      <c r="E95">
+        <v>-0.009271297338506762</v>
+      </c>
+      <c r="F95">
+        <v>0.02467979565066477</v>
+      </c>
+      <c r="G95">
+        <v>0.01405327384930843</v>
+      </c>
+      <c r="H95">
+        <v>0.0277348409545221</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +3184,103 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>-0.2006041410394445</v>
+        <v>-0.2188853924410695</v>
       </c>
       <c r="C97">
-        <v>-0.07518914675776708</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>0.02807006418395543</v>
+      </c>
+      <c r="D97">
+        <v>-0.02464879094423885</v>
+      </c>
+      <c r="E97">
+        <v>-0.1336404625725409</v>
+      </c>
+      <c r="F97">
+        <v>-0.8918032303568223</v>
+      </c>
+      <c r="G97">
+        <v>-0.205068957344329</v>
+      </c>
+      <c r="H97">
+        <v>0.02224459950822735</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.2381169420488744</v>
+        <v>-0.2677931872178223</v>
       </c>
       <c r="C98">
-        <v>-0.1177189292626164</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>0.05601375704938717</v>
+      </c>
+      <c r="D98">
+        <v>0.06426102442291827</v>
+      </c>
+      <c r="E98">
+        <v>-0.161813391462712</v>
+      </c>
+      <c r="F98">
+        <v>0.02577280083841164</v>
+      </c>
+      <c r="G98">
+        <v>0.2616810424507781</v>
+      </c>
+      <c r="H98">
+        <v>-0.1144939345510244</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>-0.5455413626030781</v>
+        <v>-0.33395052162537</v>
       </c>
       <c r="C99">
-        <v>0.8283821726764994</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>-0.9316587371289898</v>
+      </c>
+      <c r="D99">
+        <v>-0.06148267372323647</v>
+      </c>
+      <c r="E99">
+        <v>0.03994287679769683</v>
+      </c>
+      <c r="F99">
+        <v>0.04084411708479462</v>
+      </c>
+      <c r="G99">
+        <v>0.01517770640092162</v>
+      </c>
+      <c r="H99">
+        <v>0.04060809270057049</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +3288,51 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.03689900547547698</v>
+        <v>-0.04472383349179465</v>
       </c>
       <c r="C101">
-        <v>-0.02911303347660492</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>0.02200066224228569</v>
+      </c>
+      <c r="D101">
+        <v>0.01233363555912605</v>
+      </c>
+      <c r="E101">
+        <v>0.03808184847773609</v>
+      </c>
+      <c r="F101">
+        <v>0.01544451548131101</v>
+      </c>
+      <c r="G101">
+        <v>0.01523550070818943</v>
+      </c>
+      <c r="H101">
+        <v>0.08978549619997239</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3340,25 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3366,45 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
